--- a/main_project/input/airplanes.xlsx
+++ b/main_project/input/airplanes.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Downloads\main_project\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Documents\GitHub\tcc\main_project\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B9CEEE-8778-4AF7-A438-B3482EA76057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D9AA3B-3B13-45BC-BF61-D00072062FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15285" xr2:uid="{AE6808EC-7A72-4D19-9EAB-B2E429C19F77}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="22560" windowHeight="13440" xr2:uid="{AE6808EC-7A72-4D19-9EAB-B2E429C19F77}"/>
   </bookViews>
   <sheets>
     <sheet name="aircraft" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">aircraft!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">aircraft!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Airbus</t>
   </si>
@@ -47,9 +47,6 @@
     <t>A320neo</t>
   </si>
   <si>
-    <t>A220</t>
-  </si>
-  <si>
     <t>ATR</t>
   </si>
   <si>
@@ -68,12 +65,6 @@
     <t>208B Grand Caravan EX</t>
   </si>
   <si>
-    <t>Comac</t>
-  </si>
-  <si>
-    <t>C919</t>
-  </si>
-  <si>
     <t>Embraer</t>
   </si>
   <si>
@@ -89,12 +80,6 @@
     <t>408 SkyCourier</t>
   </si>
   <si>
-    <t>Let</t>
-  </si>
-  <si>
-    <t>410 NG</t>
-  </si>
-  <si>
     <t>manufacturer</t>
   </si>
   <si>
@@ -108,13 +93,37 @@
   </si>
   <si>
     <t>min_runway_length</t>
+  </si>
+  <si>
+    <t>min_runway_surface</t>
+  </si>
+  <si>
+    <t>42-600</t>
+  </si>
+  <si>
+    <t>E175-E2</t>
+  </si>
+  <si>
+    <t>E190-E2</t>
+  </si>
+  <si>
+    <t>A220-100</t>
+  </si>
+  <si>
+    <t>A220-300</t>
+  </si>
+  <si>
+    <t>A319neo</t>
+  </si>
+  <si>
+    <t>737 MAX 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,13 +132,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -171,17 +173,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,212 +527,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9B25E9-4358-49F2-BB50-EC65319AE442}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5">
+        <v>150</v>
+      </c>
+      <c r="D2" s="5">
+        <v>6850</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1750</v>
+      </c>
+      <c r="F2" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>180</v>
+      </c>
+      <c r="D3" s="5">
+        <v>6300</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1951</v>
+      </c>
+      <c r="F3" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5">
+        <v>120</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6700</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1463</v>
+      </c>
+      <c r="F4" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5">
+        <v>150</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6300</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1890</v>
+      </c>
+      <c r="F5" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C6" s="5">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1345</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1107</v>
+      </c>
+      <c r="F6" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>78</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1370</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1315</v>
+      </c>
+      <c r="F7" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5">
+        <v>126</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7037</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2083</v>
+      </c>
+      <c r="F8" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>162</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6704</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2490</v>
+      </c>
+      <c r="F9" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1689</v>
+      </c>
+      <c r="E10" s="5">
+        <v>426</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1704</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1116</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C12" s="5">
+        <v>80</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3704</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1730</v>
+      </c>
+      <c r="F12" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C13" s="5">
+        <v>97</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5463</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1615</v>
+      </c>
+      <c r="F13" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5">
+        <v>120</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5556</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1840</v>
+      </c>
+      <c r="F14" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1285</v>
+      </c>
+      <c r="E15" s="5">
+        <v>758</v>
+      </c>
+      <c r="F15" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
-        <v>180</v>
-      </c>
-      <c r="D2" s="5">
-        <v>6300</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>150</v>
-      </c>
-      <c r="D3" s="5">
-        <v>6700</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5">
-        <v>78</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1370</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5">
-        <v>186</v>
-      </c>
-      <c r="D5" s="5">
-        <v>6704</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1689</v>
-      </c>
-      <c r="E6" s="5">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1704</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5">
-        <v>192</v>
-      </c>
-      <c r="D8" s="5">
-        <v>5555</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5">
-        <v>146</v>
-      </c>
-      <c r="D9" s="5">
-        <v>4815</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2100</v>
-      </c>
-      <c r="E10" s="5">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="5">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5">
-        <v>3269</v>
-      </c>
-      <c r="E11" s="5">
-        <v>758</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{8E9B25E9-4358-49F2-BB50-EC65319AE442}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
+  <autoFilter ref="A1:F1" xr:uid="{8E9B25E9-4358-49F2-BB50-EC65319AE442}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/main_project/input/airplanes.xlsx
+++ b/main_project/input/airplanes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Documents\GitHub\tcc\main_project\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D9AA3B-3B13-45BC-BF61-D00072062FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32498DF-F1AE-41A9-85EC-1CDAD13674E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="22560" windowHeight="13440" xr2:uid="{AE6808EC-7A72-4D19-9EAB-B2E429C19F77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{AE6808EC-7A72-4D19-9EAB-B2E429C19F77}"/>
   </bookViews>
   <sheets>
     <sheet name="aircraft" sheetId="1" r:id="rId1"/>
@@ -530,21 +530,21 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -564,7 +564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -584,7 +584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -624,7 +624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -644,7 +644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -664,7 +664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -672,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D7" s="5">
         <v>1370</v>
@@ -684,7 +684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -704,7 +704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -724,7 +724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -744,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -784,7 +784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -804,7 +804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -824,7 +824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
